--- a/Compos.xlsx
+++ b/Compos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jujux\Documents\GitHub\JWatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D309B-4AFF-4433-97BC-FD4D17B62525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544AEF43-0012-44A1-903E-5ADD05DCD849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{075F82BD-02A2-4454-8243-348703E68BB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{075F82BD-02A2-4454-8243-348703E68BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Compos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
   <si>
     <t>Composant</t>
   </si>
@@ -50,9 +50,6 @@
     <t>µC</t>
   </si>
   <si>
-    <t>ESP32-S3-MINI-1</t>
-  </si>
-  <si>
     <t>Pin</t>
   </si>
   <si>
@@ -360,6 +357,12 @@
   </si>
   <si>
     <t>HEX</t>
+  </si>
+  <si>
+    <t>lsm6dso</t>
+  </si>
+  <si>
+    <t>ESP32-S3-WROOM-1-N8R8</t>
   </si>
 </sst>
 </file>
@@ -741,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CCAD86-64C2-4EC0-B9BA-AB0655B9C524}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,44 +767,47 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
         <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -821,192 +827,192 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1030,47 +1036,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
       </c>
       <c r="C3" s="2">
         <v>1110110</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1078,52 +1084,52 @@
         <v>1110111</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
         <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
       </c>
       <c r="C5" s="2">
         <v>1011100</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
         <v>1101010</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,10 +1137,10 @@
         <v>1101011</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CB18EB-FCCE-48E9-9C67-959C0750CAA6}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1158,133 +1164,133 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>5.5</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>3.3</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>1.1000000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <f>60*10^-9</f>
         <v>6.0000000000000008E-8</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <f>45*10^-9</f>
         <v>4.5000000000000006E-8</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
       </c>
       <c r="C7">
         <v>0.22</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0.34</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <f>100*10^-9</f>
         <v>1.0000000000000001E-7</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,7 +1303,7 @@
         <v>2557499.9999999995</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1310,7 +1316,7 @@
         <v>710.41666666666652</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1323,96 +1329,96 @@
         <v>29.600694444444439</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <f>50*10^-3</f>
         <v>0.05</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
         <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
       </c>
       <c r="C17">
         <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
       </c>
       <c r="C18">
         <f>C3-C8</f>
         <v>2.96</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
       </c>
       <c r="C19">
         <f>C17*C7</f>
         <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
         <v>79</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
       </c>
       <c r="C20">
         <f>5*C19</f>
         <v>1100</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21">
         <f>C18/C17</f>
         <v>2.96E-3</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Compos.xlsx
+++ b/Compos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jujux\Documents\GitHub\JWatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544AEF43-0012-44A1-903E-5ADD05DCD849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB9579B-8944-483D-B1AA-F3CF2DD83EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{075F82BD-02A2-4454-8243-348703E68BB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{075F82BD-02A2-4454-8243-348703E68BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Compos" sheetId="1" r:id="rId1"/>
-    <sheet name="ESP32-pins" sheetId="2" r:id="rId2"/>
-    <sheet name="I2C" sheetId="3" r:id="rId3"/>
-    <sheet name="RTC" sheetId="4" r:id="rId4"/>
+    <sheet name="Power" sheetId="5" r:id="rId2"/>
+    <sheet name="ESP32-pins" sheetId="2" r:id="rId3"/>
+    <sheet name="I2C" sheetId="3" r:id="rId4"/>
+    <sheet name="RTC" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="179">
   <si>
     <t>Composant</t>
   </si>
@@ -363,12 +364,228 @@
   </si>
   <si>
     <t>ESP32-S3-WROOM-1-N8R8</t>
+  </si>
+  <si>
+    <t>HR SPiO2</t>
+  </si>
+  <si>
+    <t>MAX30101</t>
+  </si>
+  <si>
+    <t>Hub HR</t>
+  </si>
+  <si>
+    <t>MAX32664</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Haptic</t>
+  </si>
+  <si>
+    <t>HD-EMC0903-LW27</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Vdd (V)</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>I_max (ÂµA/mA)</t>
+  </si>
+  <si>
+    <t>Remarques / Conditions</t>
+  </si>
+  <si>
+    <t>ESP32-S3</t>
+  </si>
+  <si>
+    <t>Deep Sleep</t>
+  </si>
+  <si>
+    <t>Wi-Fi/BLE off, GPIO hold</t>
+  </si>
+  <si>
+    <t>Light Sleep</t>
+  </si>
+  <si>
+    <t>CPU idle, radio off</t>
+  </si>
+  <si>
+    <t>Modem Sleep</t>
+  </si>
+  <si>
+    <t>40â€“240 MHz, selon cores actifs</t>
+  </si>
+  <si>
+    <t>BLE actif</t>
+  </si>
+  <si>
+    <t>Intervalle publicitÃ© typique</t>
+  </si>
+  <si>
+    <t>Wi-Fi RX</t>
+  </si>
+  <si>
+    <t>RÃ©ception continue</t>
+  </si>
+  <si>
+    <t>Wi-Fi TX</t>
+  </si>
+  <si>
+    <t>TX @ 17â€“20.5 dBm selon norme</t>
+  </si>
+  <si>
+    <t>Power Off</t>
+  </si>
+  <si>
+    <t>CHIP_PU low</t>
+  </si>
+  <si>
+    <t>Shutdown</t>
+  </si>
+  <si>
+    <t>Idle (LED off)</t>
+  </si>
+  <si>
+    <t>Pas de pulses LED</t>
+  </si>
+  <si>
+    <t>LED active (sport)</t>
+  </si>
+  <si>
+    <t>3 LEDs max 50 mA</t>
+  </si>
+  <si>
+    <t>RTC only</t>
+  </si>
+  <si>
+    <t>Power Down</t>
+  </si>
+  <si>
+    <t>H-Resolution</t>
+  </si>
+  <si>
+    <t>Ev=100 lx</t>
+  </si>
+  <si>
+    <t>Ultra Low Power</t>
+  </si>
+  <si>
+    <t>x1, x1, 1 Hz</t>
+  </si>
+  <si>
+    <t>Low Power</t>
+  </si>
+  <si>
+    <t>x2, x1, 1 Hz</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>x4, x1, 1 Hz</t>
+  </si>
+  <si>
+    <t>High Res</t>
+  </si>
+  <si>
+    <t>x8, x1, 1 Hz</t>
+  </si>
+  <si>
+    <t>Ultra High Res</t>
+  </si>
+  <si>
+    <t>x16, x2, 1 Hz</t>
+  </si>
+  <si>
+    <t>Highest Res</t>
+  </si>
+  <si>
+    <t>x32, x2, 1 Hz</t>
+  </si>
+  <si>
+    <t>LSM6DSO</t>
+  </si>
+  <si>
+    <t>Gyro+Accel High Perf</t>
+  </si>
+  <si>
+    <t>ODR 104 Hz</t>
+  </si>
+  <si>
+    <t>Accel High Perf</t>
+  </si>
+  <si>
+    <t>Accel Low Power</t>
+  </si>
+  <si>
+    <t>ODR 52 Hz</t>
+  </si>
+  <si>
+    <t>ODR 1.6 Hz</t>
+  </si>
+  <si>
+    <t>Accel Ultra Low Power</t>
+  </si>
+  <si>
+    <t>PCA9306</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Ron dÃ©pend tension EN</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>RV-3028</t>
+  </si>
+  <si>
+    <t>Timekeeping</t>
+  </si>
+  <si>
+    <t>3.0 V, IÂ²C off, CLKOUT off</t>
+  </si>
+  <si>
+    <t>3.0 V, 400 kHz</t>
+  </si>
+  <si>
+    <t>Direct Switching Mode</t>
+  </si>
+  <si>
+    <t>Level Switching Mode</t>
+  </si>
+  <si>
+    <t>I_typ (A)</t>
+  </si>
+  <si>
+    <t>I²C burst</t>
+  </si>
+  <si>
+    <t>Power modem</t>
+  </si>
+  <si>
+    <t>PWM 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,10 +621,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CCAD86-64C2-4EC0-B9BA-AB0655B9C524}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,12 +1035,947 @@
         <v>106</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480E3889-ECDF-43BC-82AC-0CF760F616C9}">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>3.3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="5">
+        <f>8*10^-6</f>
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="5">
+        <f>B2*D2</f>
+        <v>2.6399999999999998E-5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM(G4,G12,G14,G17,G21,G26,G34,G38)</f>
+        <v>0.32715405000000003</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM(G2,G12,G14,G17,G21,G28,G34,G38)</f>
+        <v>2.1851250000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>3.3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="5">
+        <f>240*10^-6</f>
+        <v>2.3999999999999998E-4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G42" si="0">B3*D3</f>
+        <v>7.9199999999999984E-4</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4">
+        <v>3.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="5">
+        <f>92*10^-3</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>3.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="5">
+        <f>0.008</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.64E-2</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>3.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3201</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>3.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1715</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>3.3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="5">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2999999999999997E-6</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>1.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="5">
+        <f>0.7*10^-6</f>
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="E10" s="5">
+        <f>2.5*10^-6</f>
+        <v>2.4999999999999998E-6</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.26E-6</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>1.8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="5">
+        <f>0.6*10^-3</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E11" s="5">
+        <f>1.1*10^-3</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.08E-3</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>1.8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>1.8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="5">
+        <f>450*10^-9</f>
+        <v>4.5000000000000003E-7</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000008E-7</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16">
+        <v>3.3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="5">
+        <f>10*10^-9</f>
+        <v>1E-8</v>
+      </c>
+      <c r="E16" s="5">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2999999999999998E-8</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>3.3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="5">
+        <f>120*10^-6</f>
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="E17" s="5">
+        <f>190*10^-6</f>
+        <v>1.8999999999999998E-4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9599999999999992E-4</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>3.3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="5">
+        <f>3.2*10^-6</f>
+        <v>3.1999999999999999E-6</v>
+      </c>
+      <c r="E19" s="5">
+        <f>7.4*10^-6</f>
+        <v>7.4000000000000003E-6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0559999999999999E-5</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>3.3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="5">
+        <f>4.8*10^-6</f>
+        <v>4.7999999999999998E-6</v>
+      </c>
+      <c r="E20" s="5">
+        <f>9.3*10^-6</f>
+        <v>9.3000000000000007E-6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5839999999999997E-5</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21">
+        <v>3.3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="5">
+        <f>7.8*10^-6</f>
+        <v>7.7999999999999999E-6</v>
+      </c>
+      <c r="E21" s="5">
+        <f>12.8*10^-6</f>
+        <v>1.2799999999999999E-5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5739999999999998E-5</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22">
+        <v>3.3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="5">
+        <f>13.8*10^-6</f>
+        <v>1.38E-5</v>
+      </c>
+      <c r="E22" s="5">
+        <f>19.5*10^-6</f>
+        <v>1.95E-5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5539999999999994E-5</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23">
+        <v>3.3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="5">
+        <f>26.2*10^-6</f>
+        <v>2.6199999999999996E-5</v>
+      </c>
+      <c r="E23" s="5">
+        <f>33.5*10^-6</f>
+        <v>3.3500000000000001E-5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>8.6459999999999982E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>3.3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="5">
+        <f>46.4*10^-6</f>
+        <v>4.6399999999999996E-5</v>
+      </c>
+      <c r="E24" s="5">
+        <f>59.2*10^-6</f>
+        <v>5.9200000000000002E-5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5311999999999997E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26">
+        <v>3.3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="5">
+        <f>0.55*10^-3</f>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>1.815E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27">
+        <v>3.3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="5">
+        <f>170*10^-6</f>
+        <v>1.6999999999999999E-4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6099999999999987E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28">
+        <v>3.3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="5">
+        <f>26*10^-6</f>
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>8.5799999999999985E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29">
+        <v>3.3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="5">
+        <f>4.5*10^-6</f>
+        <v>4.5000000000000001E-6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>1.485E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30">
+        <v>3.3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="5">
+        <f>9.5*10^-6</f>
+        <v>9.4999999999999988E-6</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1349999999999996E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31">
+        <v>3.3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="5">
+        <f>4.4*10^-6</f>
+        <v>4.4000000000000002E-6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>1.452E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32">
+        <v>3.3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="5">
+        <f>3*10^-6</f>
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34">
+        <v>3.3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35">
+        <v>3.3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="5">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2999999999999997E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37">
+        <v>3.3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="5">
+        <f>45*10^-9</f>
+        <v>4.5000000000000006E-8</v>
+      </c>
+      <c r="E37" s="5">
+        <f>60*10^-9</f>
+        <v>6.0000000000000008E-8</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4850000000000001E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38">
+        <v>3.3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="5">
+        <f>5*10^-6</f>
+        <v>4.9999999999999996E-6</v>
+      </c>
+      <c r="E38" s="5">
+        <f>40*10^-6</f>
+        <v>3.9999999999999996E-5</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6499999999999998E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39">
+        <v>3.3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="5">
+        <f>95*10^-9</f>
+        <v>9.5000000000000004E-8</v>
+      </c>
+      <c r="E39" s="5">
+        <f>150*10^-9</f>
+        <v>1.5000000000000002E-7</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1349999999999999E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40">
+        <v>3.3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="5">
+        <f>115*10^-9</f>
+        <v>1.1500000000000001E-7</v>
+      </c>
+      <c r="E40" s="5">
+        <f>180*10^-9</f>
+        <v>1.8000000000000002E-7</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7950000000000003E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42">
+        <v>3.3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="5">
+        <f>0.08</f>
+        <v>0.08</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA6A6DC-DF49-4F6D-8825-BAE0710590EF}">
   <dimension ref="A1:A38"/>
   <sheetViews>
@@ -1021,7 +2181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EEC063-5C07-4E1F-B40C-607F2D8A6579}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1148,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CB18EB-FCCE-48E9-9C67-959C0750CAA6}">
   <dimension ref="A1:E21"/>
   <sheetViews>
